--- a/Proyecto2 final/Diccionario de tablas.xlsx
+++ b/Proyecto2 final/Diccionario de tablas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Universidad\Cuarto semestre\Base de datos\Proyecto2 final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\IHealth\Proyecto2 final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72941696-B3BD-4BF9-B7FA-50FAFBC5FDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CA0D3-7CA2-4663-B3DD-B1D6EEC6C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24A5979F-4496-48DE-ABA7-4965DD5F5385}"/>
+    <workbookView xWindow="5208" yWindow="2784" windowWidth="7500" windowHeight="6000" xr2:uid="{24A5979F-4496-48DE-ABA7-4965DD5F5385}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">usuarios </t>
-  </si>
-  <si>
-    <t>numero de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>edad</t>
   </si>
@@ -56,12 +44,6 @@
     <t>altura</t>
   </si>
   <si>
-    <t>calorias diarias</t>
-  </si>
-  <si>
-    <t>peso actual</t>
-  </si>
-  <si>
     <t>sesiones</t>
   </si>
   <si>
@@ -89,46 +71,110 @@
     <t>costo</t>
   </si>
   <si>
-    <t>fecha de inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha de fin </t>
-  </si>
-  <si>
     <t xml:space="preserve">instructor </t>
   </si>
   <si>
-    <t xml:space="preserve">nombre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigo de instructor </t>
-  </si>
-  <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>codigo de instructor</t>
-  </si>
-  <si>
-    <t>Numero de usuario</t>
-  </si>
-  <si>
-    <t>codigo de curso</t>
-  </si>
-  <si>
     <t>cursos</t>
   </si>
   <si>
     <t>descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diccionario original para la creacion de las tablas </t>
+  </si>
+  <si>
+    <t>Color verde quiere decir "Llave Foranea"</t>
+  </si>
+  <si>
+    <t>Color naranja quiere decir "Llave Primaria"</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>calorias</t>
+  </si>
+  <si>
+    <t>peso_act</t>
+  </si>
+  <si>
+    <t>curso_id</t>
+  </si>
+  <si>
+    <t>fecha_init</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>tipos de membresias:</t>
+  </si>
+  <si>
+    <t>Categorias:</t>
+  </si>
+  <si>
+    <t>tipo_pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_pago: </t>
+  </si>
+  <si>
+    <t>tarjeta de credito</t>
+  </si>
+  <si>
+    <t>tarjeta de debito</t>
+  </si>
+  <si>
+    <t>cardio</t>
+  </si>
+  <si>
+    <t>aerobicos</t>
+  </si>
+  <si>
+    <t>pesas</t>
+  </si>
+  <si>
+    <t>oro</t>
+  </si>
+  <si>
+    <t>diamante</t>
+  </si>
+  <si>
+    <t>inst_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inst_nombre </t>
+  </si>
+  <si>
+    <t>inst_apellido</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>acc_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,10 +213,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,132 +540,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A92E3B8-0735-4AB2-9470-B9D4DB46BFFD}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>